--- a/C++/Tutoring/TutorCode/server/backend/excel-files/C++Questions.xlsx
+++ b/C++/Tutoring/TutorCode/server/backend/excel-files/C++Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Unversity-ComputerScience\C++\Tutoring\TutorCode\server\backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A66D8-FEF7-418F-82F5-841C62D7C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6C538B-8585-4DA0-BB82-16CDED3CDB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{37899F9D-1526-49FF-9824-CF57E5B87CD0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>What is a pointer?</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>A method to initialize an object, A destructor, A global variable, A class</t>
+  </si>
+  <si>
+    <t>What are smart pointers</t>
+  </si>
+  <si>
+    <t>asdsad,asdasd,asdasdasdas,asdsad</t>
+  </si>
+  <si>
+    <t>Mama is a bee</t>
+  </si>
+  <si>
+    <t>True, False</t>
   </si>
 </sst>
 </file>
@@ -422,16 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D754754-4006-4686-A22F-DD94C7E99AAF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67.21875" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -450,6 +462,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
